--- a/Java.xlsx
+++ b/Java.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Java" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Selenium" sheetId="2" r:id="rId1"/>
+    <sheet name="Java" sheetId="1" r:id="rId2"/>
+    <sheet name="Jenkins" sheetId="4" r:id="rId3"/>
+    <sheet name="TestNG" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="189">
   <si>
     <t>Sr.No</t>
   </si>
@@ -225,9 +226,6 @@
     <t>Can we overload the static method?</t>
   </si>
   <si>
-    <t>No,Static methods can't be overriden as its scope is at class level rather than an object.</t>
-  </si>
-  <si>
     <t>Can we override the static method?</t>
   </si>
   <si>
@@ -237,23 +235,540 @@
     <t>What is the use of super keyword in Java?</t>
   </si>
   <si>
-    <t>super can be used to refer immediate parent class variable,method and constructor.
+    <t>What is the use of instanceof operator in Java?</t>
+  </si>
+  <si>
+    <t>In Java instanceof operator is used to test whether the object is an instance of the specified type</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>How to upload document using selenium Webdriver?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can upload any file using below code
+driver.findElement(By.id("uploadfile_0")). sendKeys("C:\\Image.JPG");
+By.id= Provide id of the element after clicking on which pop window comes to choose file.
+SendKeys=Give path of the file in your system. It can be any file image , pdf , doc etc.
+</t>
+  </si>
+  <si>
+    <t>How to configure TestNG with selenium?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To configure TestNG we have to add plug-in of TestNG into Eclipse below are the steps to do it.
+1. Go to help.
+2. Click on “Install  New Software”. 
+3. In “Work with” field enter URL http://beust.com/eclipse/
+4. Wait  for TestNG plug-in to download from internet.
+5. Click on finish.
+</t>
+  </si>
+  <si>
+    <t>driver.findElement(By.xpath(“xpath of text field”)).sendKeys(“xyz@gmail.com”);</t>
+  </si>
+  <si>
+    <t>How to enter E-mail id into Username field using selenium WebDriver?</t>
+  </si>
+  <si>
+    <t>What is absolute xpath and relative xpath?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute xpath: 
+/html/body/div[5]/div[2]/div/div[2]/div[2]/h2[1]
+Relative xpath:
+ //*[@id="username"]
+</t>
+  </si>
+  <si>
+    <t>Can we configure maven project with selenium?</t>
+  </si>
+  <si>
+    <t>Yes, we can configure maven project with selenium , We just need to create Maven project in the latest version of Eclipse such as Neon or above version because Maven come inbuilt with it hence we just need to add selenium jar files to the maven project and selenium is ready to use.</t>
+  </si>
+  <si>
+    <t>How to navigate between pages using selenium Webdriver?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driver.navigate.to(); //To launch the website
+driver.navigate.forward(); //To navigate forward
+driver.navigate.back(); //To navigate backward
+</t>
+  </si>
+  <si>
+    <t>How to handle newly popped up window and continue test script execution there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For this we will have to use three functions
+1. getWindowHandle();
+2. driver.getWindowHandles()
+3. switchTo().window()
+String  home= driver.getWindowHandle(); //To store window handle of the current window.
+for (String handle : driver.getWindowHandles())
+{
+driver.switchTo().window(handle); //To switch to new window
+} //After this control will get transferred to new window 
+driver.switchTo().window(home);// To navigate back to home window
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can handle java script pop-ups using “Alert” class remember alert is a class not an interface.
+Alert alert = driver.switchTo().alert(); //Creating object of alert class
+alert.accept():  //To accept alert
+alert.dismiss(); //To cancel alert
+alert.sendKeys(); //To enter text into java script pop-up alert
+</t>
+  </si>
+  <si>
+    <t>How to handle java script Alert ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is the base class of all classes?
+</t>
+  </si>
+  <si>
+    <t>java.lang.Object</t>
+  </si>
+  <si>
+    <t>What is abstraction?</t>
+  </si>
+  <si>
+    <t>Abstraction is a process in which we show only the functionality to user and hide the implementation.</t>
+  </si>
+  <si>
+    <t>How will you achieve abstraction?</t>
+  </si>
+  <si>
+    <t>There are two ways to achieve abstraction in java
+Abstract class (0 to 100%)
+Interface (100%)</t>
+  </si>
+  <si>
+    <t>why we use interface?</t>
+  </si>
+  <si>
+    <t>We use interface to achieve abstraction ,we can support the functionality of multiple inheritance and it used to achieve loose coupling.</t>
+  </si>
+  <si>
+    <t>Can method have body in interface?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Method cannot have body in interface </t>
+  </si>
+  <si>
+    <t>It is okay if we don’t implement all the methods declared in the interface.</t>
+  </si>
+  <si>
+    <t>What will happen if we define a concrete method in an interface?</t>
+  </si>
+  <si>
+    <t>if we declare any concrete method in an interface compile time error will come.</t>
+  </si>
+  <si>
+    <t>Can we create non static variables in an interface?</t>
+  </si>
+  <si>
+    <t>No, we cannot create non static variables in an interface because by default variable will be treated as public static final variables.</t>
+  </si>
+  <si>
+    <t>No, Static methods can't be overridden as its scope is at class level rather than an object.</t>
+  </si>
+  <si>
+    <t>super can be used to refer immediate parent class variable, method and constructor.
 Super.a;    //variable
 super.sum();  //method
 super();   //constructor</t>
   </si>
   <si>
-    <t>What is the use of instanceof operator in Java?</t>
-  </si>
-  <si>
-    <t>In Java instanceof operator is used to test whether the object is an instance of the specified type</t>
+    <t>No , it is mandatory to class that implement interface must implement all the methods declared in the interface.</t>
+  </si>
+  <si>
+    <t>Do we need to initialize variable defined in interface?</t>
+  </si>
+  <si>
+    <t>Yes, we have to initialized the variable defined in interface.</t>
+  </si>
+  <si>
+    <t>When we need to use extends and implements?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An interface extends another interface.
+A class implements an interface.
+A class extends another class.
+</t>
+  </si>
+  <si>
+    <t>Can we create object for an interface?</t>
+  </si>
+  <si>
+    <t>No, We cannot not create object for interface and also constructor is not present for an Interface..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Can abstract class have constructors in Java?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, abstract class can have constructor in Java. Since we cannot create instance of abstract class,  constructor will be called when we create instance of concrete implementation class. </t>
+  </si>
+  <si>
+    <t>Do we need to initialize variable defined in abstract class</t>
+  </si>
+  <si>
+    <t>No, we don’t need to initialize variable defined in abstract class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the purpose of constructor, if you can not instantiate abstract class?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is used to initialize common variables, which are declared inside abstract class.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can abstract class implements interface in Java? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, abstract class can implement interface by using implements keyword and as it’s a abstract class it don’t need to implement all methods of interface. 
+</t>
+  </si>
+  <si>
+    <t>Can abstract class be final in Java?</t>
+  </si>
+  <si>
+    <t>No, abstract class can not be final in Java.</t>
+  </si>
+  <si>
+    <t>No, It is not mandatory for an abstract class to have any abstract method.</t>
+  </si>
+  <si>
+    <t>Is it mandatory for abstract class to have abstract method?</t>
+  </si>
+  <si>
+    <t>Abstract class can contain not abstract methods?</t>
+  </si>
+  <si>
+    <t>Yes, Abstract class can contain not abstract methods.</t>
+  </si>
+  <si>
+    <t>No,when we import using import package.* , we will not beable to access sub packages.</t>
+  </si>
+  <si>
+    <t>When we import using import package.* , we will be able to access sub packages?</t>
+  </si>
+  <si>
+    <t>Why import keyword is used?</t>
+  </si>
+  <si>
+    <t>The import keyword is used to make the classes and interface of another package accessible to the current package.</t>
+  </si>
+  <si>
+    <t>alert.sendKeys(); //To enter text into java script pop-up alert.</t>
+  </si>
+  <si>
+    <t>How to sent data into java script Alert box?</t>
+  </si>
+  <si>
+    <t>How to take screen shots in selenium Webdriver?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can tell in interview that for taking screen shot in selenium we have readymade code available we just need to provide file path  where we have to save the image 
+// Take screenshot and store as a file format
+File src= ((TakesScreenshot)driver).getScreenshotAs(OutputType.FILE);
+             FileUtils.copyFile(src, new File("C:\\Error.png")); //Give path for storing image file
+            getscreenshot(); //calling of method in script to take screenshot
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WebDriver can support the headless execution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headless Execution: It means test script will execute without opening the browser, it can be achieved in selenium by using HTMLUnit driver 
+WebDriver driver = new HtmlUnitDriver(); //all script below this line will get executed </t>
+  </si>
+  <si>
+    <t>Webdriver Can test iPhone/Android applications?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We cannot test iPhone application using Selenium Webdriver. However we can use Appium for automating, it is “cross-platform”: It facilitates cross platform testing for both iOS and Android using the same API.
+we can use iOS Driver or Android along with Selenium.
+</t>
+  </si>
+  <si>
+    <t>Write a code to give implicit wait for 10 seconds?</t>
+  </si>
+  <si>
+    <t>driver.manage().timeouts().implicitlyWait(10,TimeUnit.SECONDS) ;</t>
+  </si>
+  <si>
+    <t>Difference between close and quit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driver.close(); // It is used to close the current browser window
+driver.quit(); // It is used to close all open browser windows
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findElement: It will return path of single WebElement.
+Example: String x=driver.findElement(By.id(“Element ID”)); //Here we are storing path of only single element
+findElements: It will return the path of more than one WebElements
+Example: List&lt;WebElement&gt; links=driver.findElements(By. tagName(“a”)); // Here we are storing path of all links
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Implicit Wait
+2. Explicit Wait
+               Implicit Wait: 
+In implicit WebDriver will wait for certain amount of time before throwing an “No Such Element Exception".
+Example: driver.manage().timeouts().implicitlyWait(TimeOut, TimeUnit.SECONDS);
+Explicit Wait:
+In explicit wait WebDriver will wait for certain conditions (Expected Conditions) before throwing an "ElementNotVisibleException" exception. When given time limit is pass and expected condition is not met it will throw an error.
+WebDriverWait wait = new WebDriverWait(WebDriverRefrence,TimeOut);  //Creating object of 
+WebDriverWait
+x = wait.until(ExpectedConditions.visibilityOfElementLocated(By.xpath( "/html/body/div[1] ")));
+x.click();
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limitations:
+1. Selenium only to test web applications
+2. There is no support available for Selenium. We have to use communities portals such as stackoverflow to resolve any issue.
+3. Images compare, captcha entering, barcode reading cannot be automated using selenium Webdriver. 
+4.  There is reporting facility but we can do it using  TestNG , JUnit or Cucumber.
+5. For using selenium Webdriver you should know at least one programming language for example Java , Python, Ruby etc.
+</t>
+  </si>
+  <si>
+    <t>We cannot compare images using selenium Webdriver.</t>
+  </si>
+  <si>
+    <t>driver.manage().window().maximize();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can perform mouse action using Action class in selenium
+Actions Act = new Actions(driver);
+Act.moveToElement(element).click().perform();
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebElement start = driver.findElement(By.name( "source" ));
+ WebElement end = driver.findElement(By.name( "target" ));
+Actions builder = new Actions(driver);
+builder.dragAndDrop(start,end).build().perform();
+</t>
+  </si>
+  <si>
+    <t>How TestNg is better Junit?</t>
+  </si>
+  <si>
+    <t>1.TestNG have advance annotations and more annotations then Junit
+2.Execution pattern can be set in TestNG
+3. We can concurrently execution our test scripts.
+4.Test case dependencies can be set in TestNG
+5.Data driven framework can be easily implemented using Data provider.
+6.TestNG can generate the report in a readable format.</t>
+  </si>
+  <si>
+    <t>TestNG</t>
+  </si>
+  <si>
+    <t>How will you clear the contents from the input box?</t>
+  </si>
+  <si>
+    <t>driver.findElement(By.xpath(“xpath of text field”)).clear()</t>
+  </si>
+  <si>
+    <t>What are the ways for synchronize between script execution and application?</t>
+  </si>
+  <si>
+    <t>What is fluentWait?</t>
+  </si>
+  <si>
+    <t>What are the benefits of using fluentWait?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Using fluentWait we can define frequency with which to check the existence of element.
+2.We can also Ignore specific types of exception such as "NoSuchElementExceptions" while searching for an element on the page.
+3. We can define Maximum amount of time to wait for a condition.
+</t>
+  </si>
+  <si>
+    <t>A FluentWait instance defines the maximum amount of time to wait for a condition to take place, as well as the frequency with which to check the existence of the object condition.
+// Waiting 60 seconds for an element to be present on the page, checking
+// for its presence once every 10 seconds.
+Wait&lt;WebDriver&gt; wait = new FluentWait&lt;WebDriver&gt;(driver).withTimeout(60, SECONDS).pollingEvery(10, SECONDS).ignoring(NoSuchElementException.class);</t>
+  </si>
+  <si>
+    <t>Difference between findElemets and findElement?</t>
+  </si>
+  <si>
+    <t>What are the different types of waits available in WebDriver?</t>
+  </si>
+  <si>
+    <t>What are the limitations of Selenium?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to verify compare image using selenium 2.0?
+</t>
+  </si>
+  <si>
+    <t>How to maximize window using selenium 2.0?</t>
+  </si>
+  <si>
+    <t>How to perform mouse action in selenium?</t>
+  </si>
+  <si>
+    <t>What are the different element identification techniques used in selenium Webdriver?</t>
+  </si>
+  <si>
+    <t>How to perform drag and drop in selenium?</t>
+  </si>
+  <si>
+    <t>How to get page souce in selenium?</t>
+  </si>
+  <si>
+    <t>How to launch any URL using selenium Webdriver?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use Actions class to perform a drag and drop?
+</t>
+  </si>
+  <si>
+    <t>1.Frequency with which FluentWait has to check the conditions defined.
+2.Ignore specific types of exception waiting such as NoSuchElementExceptions while searching for an element on the page.
+3.Maximum amount of time to wait for a condition</t>
+  </si>
+  <si>
+    <t>What are the types of Explicit wait?</t>
+  </si>
+  <si>
+    <t>Explicit wait is of two types:
+1) WebDriverWait
+2) FluentWait
+both are classes and implements Wait interface.
+1.WebDriverWait Example:
+WebDriverWait wait = new WebDriverWait (driver, 20);
+wait.until(ExpectedConditions.VisibilityofElementLocated(By.xpath(""//button[@value='Btn']"")));
+2.FluentWait Example:
+new FluentWait&lt;WebDriver&gt;(driver).withTimeout(60, TimeUnit.SECONDS).pollingevery(10, TimeUnit.SECONDS).ignoring(NoSuchElementException.class);</t>
+  </si>
+  <si>
+    <t>We can perform drag and drop using Actions class
+ Actions obj=new Actions(driver);     
+//Dragged and dropped.  
+obj.dragAndDrop(From, To).build().perform();  //From will store xpath of source point
+ //To will store xpath of desination point</t>
+  </si>
+  <si>
+    <t>How will you record script exection video in selenium?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By Monte Media Library we can record script exection video link for jar given below
+https://www.randelshofer.ch/monte/index.html
+add the JAR file to the Libraries of the current project and use predefine start() and stop() functions to start and stop video recording.
+</t>
+  </si>
+  <si>
+    <t>Why selenium grid is used?</t>
+  </si>
+  <si>
+    <t>It is a tool used to run parallel tests across different machines and different browsers simultaneously which results in minimized execution time because it allows us to execute multiple instances of WebDriver</t>
+  </si>
+  <si>
+    <t>When and who developed selenium?</t>
+  </si>
+  <si>
+    <t>Selenium was originally developed by Jason Huggins in 2004 at ThoughtWorks.</t>
+  </si>
+  <si>
+    <t>Why verifyElementPresent and verifyText functions are used?</t>
+  </si>
+  <si>
+    <t>verifyElementPresen: We use verifyElementPresen command when we haveto test for the presence of a specific UI element, rather than its content.
+verifyText: We use verifyText comman when we have to verify that specific text appears at a specific location on the page relative to other UI components on the page.</t>
+  </si>
+  <si>
+    <t>What are the types of commans in selenium?</t>
+  </si>
+  <si>
+    <t>There are three types of commands in selenium Actions ,Accessors ,Assertions.
+1.Actions : Actions are commands that generally manipulate the state of the application. They do things like “click this link” and “select that option”.
+2.Accessors: Accessors examine the state of the application and store the results in variables, e.g. “storeTitle”. They are also used to automatically generate Assertions.
+3.Assertions : They are used to  verify that the state of the application conforms to what is expected. Examples include “make sure the page title is X”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to set Chrome driver properties and driver path in project?
+</t>
+  </si>
+  <si>
+    <t>System.setProperty("webdriver.chrome.driver","C:\\Setup\\chromedriver.exe");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write selenium code to click on submit button having id = “Submit”.
+</t>
+  </si>
+  <si>
+    <t>driver.findElement(By.xpath(“xpath of button”)).click();</t>
+  </si>
+  <si>
+    <t>The easiest and recommended way is to manually set the proxy on the machine that will be running the test. If that is not possible or we want your test to run with a different configuration or proxy, then we can use the following technique that uses a Capababilities object. This temporarily changes the system’s proxy settings and changes them back to the original state when done.
+String PROXY = "localhost:8080";
+org.openqa.selenium.Proxy proxy = new org.openqa.selenium.Proxy();
+proxy.setHttpProxy(PROXY)
+     .setFtpProxy(PROXY)
+     .setSslProxy(PROXY);
+DesiredCapabilities cap = new DesiredCapabilities();
+cap.setCapability(CapabilityType.PROXY, proxy);
+WebDriver driver = new InternetExplorerDriver(cap);</t>
+  </si>
+  <si>
+    <t>How to set Proxy in IE and Chrome?</t>
+  </si>
+  <si>
+    <t>// Create a new instance of the Firefox driver
+driver = webdriver.Firefox()
+//go to the google home page
+driver.get("http://www.google.com")</t>
+  </si>
+  <si>
+    <t>String pageSource = driver.getPageSource();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to switch over the elements in iframes using Web Driver </t>
+  </si>
+  <si>
+    <t>We switch over the elements in iframes using Web Driver
+By Index
+By Name or Id
+By Web Element</t>
+  </si>
+  <si>
+    <t>How to Switch frame by index?</t>
+  </si>
+  <si>
+    <t>Suppose if there are 10 frames in page, we can switch to the iframe by using index.
+driver.switchTo().frame(0);
+driver.switchTo().frame(1);</t>
+  </si>
+  <si>
+    <t>Different element identification techniques used in selenium Webdriver are
+1.By ID   //driver.findElement(By.id ("id of element"))
+2.By name  //driver.findElement(By.name ("name of element"))
+3.By class name //driver.findElement(By.className ("class name of element"))
+4.By tag name //driver.findElement(By.tagName ("htmltagname of element"))
+5.By link text //driver.findElement(By.linkText ("linktext"))
+5.By partial link text //driver.findElement(By.partialLinkText ("linktext")) 
+6.By CSS // driver.findElement(By.cssSelector ("css selector"))
+7.By Xpath // driver.findElement(By.xpath ("xpath"))</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +787,13 @@
     <font>
       <sz val="20"/>
       <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -407,11 +929,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -430,6 +961,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,43 +1268,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="102.85546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="30.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="90">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="180">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="63.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="135">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="105">
+      <c r="A14" s="3">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="90">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" s="3">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45">
+      <c r="A19" s="3">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60">
+      <c r="A20" s="3">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="210">
+      <c r="A21" s="3">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="90">
+      <c r="A22" s="3">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120">
+      <c r="A24" s="3">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45">
+      <c r="A25" s="3">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60">
+      <c r="A26" s="3">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45">
+      <c r="A28" s="3">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="120">
+      <c r="A29" s="3">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="285">
+      <c r="A30" s="3">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="135">
+      <c r="A31" s="3">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30">
+      <c r="A32" s="3">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60">
+      <c r="A34" s="3">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="210">
+      <c r="A35" s="3">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="90">
+      <c r="A37" s="3">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="60">
+      <c r="A39" s="3">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="60">
+      <c r="A40" s="3">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="75">
+      <c r="A41" s="3">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="75">
+      <c r="A42" s="3">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30">
+      <c r="A43" s="3">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="75">
+      <c r="A45" s="3">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="105">
+      <c r="A46" s="3">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="78" style="3" customWidth="1"/>
-    <col min="3" max="3" width="64.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="78.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -772,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -794,7 +1821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45">
+    <row r="9" spans="1:3" ht="60">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -805,7 +1832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="105">
+    <row r="10" spans="1:3" ht="135">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -816,7 +1843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="300">
+    <row r="11" spans="1:3" ht="330">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -834,7 +1861,7 @@
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -845,18 +1872,18 @@
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -867,7 +1894,7 @@
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -889,7 +1916,7 @@
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -900,29 +1927,29 @@
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="30">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -944,7 +1971,7 @@
       <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -955,7 +1982,7 @@
       <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -977,7 +2004,7 @@
       <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -988,7 +2015,7 @@
       <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -999,7 +2026,7 @@
       <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1010,7 +2037,7 @@
       <c r="B28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1021,7 +2048,7 @@
       <c r="B29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1032,30 +2059,30 @@
       <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="30">
       <c r="A31" s="2">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="30">
       <c r="A32" s="2">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="5" t="s">
         <v>57</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1065,30 +2092,250 @@
       <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="75">
+      <c r="C33" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60">
       <c r="A34" s="2">
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" s="2">
         <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A36" s="2">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30">
+      <c r="A37" s="2">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45">
+      <c r="A38" s="2">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30">
+      <c r="A39" s="2">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>35</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" s="2">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30">
+      <c r="A43" s="2">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>39</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="60">
+      <c r="A45" s="2">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="2">
+        <v>41</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45">
+      <c r="A47" s="2">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>44</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="45">
+      <c r="A50" s="2">
+        <v>45</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="60">
+      <c r="A51" s="2">
+        <v>46</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>47</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>48</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30">
+      <c r="A54" s="2">
+        <v>49</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30">
+      <c r="A55" s="2">
+        <v>50</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1100,26 +2347,110 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="91.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="91.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="90">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>